--- a/biology/Médecine/Organización_Médica_Colegial_de_España/Organización_Médica_Colegial_de_España.xlsx
+++ b/biology/Médecine/Organización_Médica_Colegial_de_España/Organización_Médica_Colegial_de_España.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Organizaci%C3%B3n_M%C3%A9dica_Colegial_de_Espa%C3%B1a</t>
+          <t>Organización_Médica_Colegial_de_España</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Ordre des médecins d’Espagne (OMC) est la corporation de droit public de co-régulation de la profession médicale. C'est l'organisme qui, formé par le Conseil Général des Médecins et les Collèges Officiels de Médecins, représente les médecins inscrits en Espagne, en agissant comme sauvegarde des valeurs fondamentales de la profession médicale : la déontologie et le code moral.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Organizaci%C3%B3n_M%C3%A9dica_Colegial_de_Espa%C3%B1a</t>
+          <t>Organización_Médica_Colegial_de_España</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,122 @@
           <t>Conseil général des médecins (CGCOM)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le Conseil général des médecins (CGCOM) est l'organisme qui regroupe, coordonne et représente les 52 Collèges Officiels de Médecins de l'Espagne (ordres départementaux) au niveau national et international. Sa fonction principale est la représentation exclusive, la régulation et la défense de la profession médicale.
-Commission permanente de l'OMC
-Le rôle primordial de la commission permanente de l'OMC est la direction, la gestion et l'administration du Conseil Général. Elle développe et accomplit les accords adoptés par l'Assemblée Générale, s’occupe des affaires administratives et de la gestion quotidienne du Conseil Général, ainsi que de l'organisation administrative et de la direction des structures internes de gestion du Conseil Général et du personnel.
-L'Assemblée générale
-L'Assemblée générale est l'organisme directeur du Conseil Général et elle est composée de tous les présidents des Collèges Officiels de Médecins, des membres de la Commission Permanente, des Représentants Nationaux des Sections et des représentants de l'université, des sociétés scientifiques, ainsi que des entités professionnelles que l'Assemblée souhaite incorporer avec voix mais sans vote.
-Vocalías
-Les Sections ou groupes professionnels réunissent les médecins dans différents « Vocalías », d’après sa modalité et forme d'exercice.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Conseil général des médecins (CGCOM) est l'organisme qui regroupe, coordonne et représente les 52 Collèges Officiels de Médecins de l'Espagne (ordres départementaux) au niveau national et international. Sa fonction principale est la représentation exclusive, la régulation et la défense de la profession médicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Organización_Médica_Colegial_de_España</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organizaci%C3%B3n_M%C3%A9dica_Colegial_de_Espa%C3%B1a</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Conseil général des médecins (CGCOM)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Commission permanente de l'OMC</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rôle primordial de la commission permanente de l'OMC est la direction, la gestion et l'administration du Conseil Général. Elle développe et accomplit les accords adoptés par l'Assemblée Générale, s’occupe des affaires administratives et de la gestion quotidienne du Conseil Général, ainsi que de l'organisation administrative et de la direction des structures internes de gestion du Conseil Général et du personnel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Organización_Médica_Colegial_de_España</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organizaci%C3%B3n_M%C3%A9dica_Colegial_de_Espa%C3%B1a</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Conseil général des médecins (CGCOM)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L'Assemblée générale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Assemblée générale est l'organisme directeur du Conseil Général et elle est composée de tous les présidents des Collèges Officiels de Médecins, des membres de la Commission Permanente, des Représentants Nationaux des Sections et des représentants de l'université, des sociétés scientifiques, ainsi que des entités professionnelles que l'Assemblée souhaite incorporer avec voix mais sans vote.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Organización_Médica_Colegial_de_España</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organizaci%C3%B3n_M%C3%A9dica_Colegial_de_Espa%C3%B1a</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Conseil général des médecins (CGCOM)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vocalías</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Sections ou groupes professionnels réunissent les médecins dans différents « Vocalías », d’après sa modalité et forme d'exercice.
 La mission des « vocalías » est de conseiller sur les affaires ayant rapport à leur spécialité, ainsi que de réaliser des études et des propositions sur les sujets de sa compétence, raison pour laquelle des groupes de travail spécifiques ont été créées.
 Représentants nationaux de :
 soins primaires ruraux ;
@@ -535,34 +654,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Organizaci%C3%B3n_M%C3%A9dica_Colegial_de_Espa%C3%B1a</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Organizaci%C3%B3n_M%C3%A9dica_Colegial_de_Espa%C3%B1a</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Organización_Médica_Colegial_de_España</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organizaci%C3%B3n_M%C3%A9dica_Colegial_de_Espa%C3%B1a</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Départements et Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Commissions de travail
-Commission de Déontologie et Droit Médical
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Commissions de travail</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Commission de Déontologie et Droit Médical
 Département de Relations Internationales
 Unité Technologique
 Commission de Statuts
@@ -580,44 +704,114 @@
 Secteur de Relations avec les Compagnies d'Assurance-Maladie
 Secteur de Relations avec les Sociétés Scientifiques
 Secteur de Barèmes de dommages sanitaires
-Secteur de Nouvelles Technologies
-Groupes de travail des « vocalías »
-Groupe de travail de Santé publique
+Secteur de Nouvelles Technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Organización_Médica_Colegial_de_España</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organizaci%C3%B3n_M%C3%A9dica_Colegial_de_Espa%C3%B1a</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Départements et Fondations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Groupes de travail des « vocalías »</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Groupe de travail de Santé publique
 Groupe de travail de Maladies Sexuellement Transmissibles (soins primaires)
 Groupe de travail Tabac et SIDA (soins primaires)
-Commission de Classification Terminologique (médecine privée)
-Fondations
-Fundación para la Formación de la Organización Médica Colegial
+Commission de Classification Terminologique (médecine privée)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Organización_Médica_Colegial_de_España</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organizaci%C3%B3n_M%C3%A9dica_Colegial_de_Espa%C3%B1a</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Départements et Fondations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fondations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Fundación para la Formación de la Organización Médica Colegial
 Fundación Patronato de Huérfanos y Protección Social de Médicos Príncipe de Asturias
 Fundación de los Colegios Médicos para la Cooperación Internacional</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Organizaci%C3%B3n_M%C3%A9dica_Colegial_de_Espa%C3%B1a</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Organizaci%C3%B3n_M%C3%A9dica_Colegial_de_Espa%C3%B1a</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Organización_Médica_Colegial_de_España</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organizaci%C3%B3n_M%C3%A9dica_Colegial_de_Espa%C3%B1a</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Publications, livres et journaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'OMC publie régulièrement des livres et des journaux qui permettent de mettre à jour l'information et la formation des médecins espagnols sur les affaires professionnelles.
 En outre, il élabore une série d’études, documents et rapports d'intérêt professionnel.
@@ -625,31 +819,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Organizaci%C3%B3n_M%C3%A9dica_Colegial_de_Espa%C3%B1a</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Organizaci%C3%B3n_M%C3%A9dica_Colegial_de_Espa%C3%B1a</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Organización_Médica_Colegial_de_España</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organizaci%C3%B3n_M%C3%A9dica_Colegial_de_Espa%C3%B1a</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Histoire de l’Ordre des Médecins d’Espagne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La structure initiale des Collèges de Médecins de l'Espagne se trouve dans le règlement adopté par Alphonse XII, en cédule du 3 décembre 1875, selon laquelle tous les médecins exerçant à Madrid et dans les sites royaux étaient obligés de s'y inscrire.
 Les premiers Collèges de Médecins sont fondés en Espagne en 1894.
@@ -662,8 +858,8 @@
 Lors de la guerre civile, le 30 juillet 1936, un décret du ministère de la Santé et du Travail dissout toute la structure collégiale. Dans la zone républicaine sont créées les associations professionnelles de médecins en 1937. Dans la zone nationaliste, par ordre du Gouvernement Général, le Conseil Général des Médecins est constitué en août 1937, ainsi qu’une Commission Permanente qui sera l’organe représentatif pour l’ensemble de l’Espagne, dépendant du Gouvernement Général via la Direction Générale de Santé.
 Le 30 octobre 1940, sous la dictature de Francisco Franco, de nouvelles règles pour le fonctionnement du Conseil Général sont émises. 
 En 1946, un nouveau Règlement qui inclut 22 normes disciplinaires est adopté. 
-En 1963, ce Règlement est modifié avec des innovations importantes. L'Assemblée n'est plus formée par des Comités Directeurs mais par les Présidents des Collèges. Ce seront les médecins inscrits qui décideront par vote la composition des Comités Directeurs. Les Comités, à leur tour, choisiront la composition du Conseil Général[2]. On parle dorénavant d’Ordre des Médecins de l’Espagne. 
-En 1967, un Règlement publié au Journal Officiel déclare que l’OMC doit être considéré comme un organisme de droit public, dissocié de l'Administration Sanitaire dans une correction ultérieure[3].
+En 1963, ce Règlement est modifié avec des innovations importantes. L'Assemblée n'est plus formée par des Comités Directeurs mais par les Présidents des Collèges. Ce seront les médecins inscrits qui décideront par vote la composition des Comités Directeurs. Les Comités, à leur tour, choisiront la composition du Conseil Général. On parle dorénavant d’Ordre des Médecins de l’Espagne. 
+En 1967, un Règlement publié au Journal Officiel déclare que l’OMC doit être considéré comme un organisme de droit public, dissocié de l'Administration Sanitaire dans une correction ultérieure.
 Avec l'avènement de la démocratie, d'importants changements politiques surviennent dans le pays. En 1980, de nouveaux Statuts sont adoptés avec comme principales nouveautés le droit des Représentants des Sections de voter, la possibilité pour tous les médecins inscrits de participer aux élections à tous les postes du Conseil, ainsi que l'obligation pour tous les Collèges provinciaux d’avoir un Comité Disciplinaire.
 Les changements successifs des Règlements en 2006, 2007, 2008 et 2010 ont transformé l'organisation du Conseil, notamment les fonctions des Conseils Régionaux, l’intégration des étudiants de Médecine, l’incompatibilité des postes et la limitation temporaire des mandats. Ces transformations visent à adapter le fonctionnement du Conseil à la réalité sociale de l’ensemble de la profession médicale.
 </t>
